--- a/Final Cluster.xlsx
+++ b/Final Cluster.xlsx
@@ -23,7 +23,7 @@
     <t>kabupaten</t>
   </si>
   <si>
-    <t>Res_fgwc$cluster</t>
+    <t>Res_ifafgwc$cluster</t>
   </si>
   <si>
     <t>1</t>
@@ -3160,7 +3160,7 @@
         <v>515</v>
       </c>
       <c r="E2" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="3">
@@ -3177,7 +3177,7 @@
         <v>516</v>
       </c>
       <c r="E3" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="4">
@@ -3194,7 +3194,7 @@
         <v>517</v>
       </c>
       <c r="E4" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="5">
@@ -3211,7 +3211,7 @@
         <v>518</v>
       </c>
       <c r="E5" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="6">
@@ -3228,7 +3228,7 @@
         <v>519</v>
       </c>
       <c r="E6" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="7">
@@ -3262,7 +3262,7 @@
         <v>521</v>
       </c>
       <c r="E8" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
@@ -3296,7 +3296,7 @@
         <v>523</v>
       </c>
       <c r="E10" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="11">
@@ -3313,7 +3313,7 @@
         <v>524</v>
       </c>
       <c r="E11" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="12">
@@ -3330,7 +3330,7 @@
         <v>525</v>
       </c>
       <c r="E12" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="13">
@@ -3347,7 +3347,7 @@
         <v>526</v>
       </c>
       <c r="E13" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="14">
@@ -3364,7 +3364,7 @@
         <v>527</v>
       </c>
       <c r="E14" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="15">
@@ -3381,7 +3381,7 @@
         <v>528</v>
       </c>
       <c r="E15" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="16">
@@ -3398,7 +3398,7 @@
         <v>529</v>
       </c>
       <c r="E16" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="17">
@@ -3415,7 +3415,7 @@
         <v>530</v>
       </c>
       <c r="E17" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="18">
@@ -3449,7 +3449,7 @@
         <v>532</v>
       </c>
       <c r="E19" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="20">
@@ -3500,7 +3500,7 @@
         <v>535</v>
       </c>
       <c r="E22" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="23">
@@ -3534,7 +3534,7 @@
         <v>537</v>
       </c>
       <c r="E24" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="25">
@@ -3551,7 +3551,7 @@
         <v>538</v>
       </c>
       <c r="E25" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="26">
@@ -3568,7 +3568,7 @@
         <v>539</v>
       </c>
       <c r="E26" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="27">
@@ -3585,7 +3585,7 @@
         <v>540</v>
       </c>
       <c r="E27" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="28">
@@ -3602,7 +3602,7 @@
         <v>541</v>
       </c>
       <c r="E28" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="29">
@@ -3619,7 +3619,7 @@
         <v>542</v>
       </c>
       <c r="E29" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="30">
@@ -3636,7 +3636,7 @@
         <v>543</v>
       </c>
       <c r="E30" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="31">
@@ -3653,7 +3653,7 @@
         <v>544</v>
       </c>
       <c r="E31" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="32">
@@ -3670,7 +3670,7 @@
         <v>545</v>
       </c>
       <c r="E32" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="33">
@@ -3687,7 +3687,7 @@
         <v>546</v>
       </c>
       <c r="E33" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="34">
@@ -3704,7 +3704,7 @@
         <v>547</v>
       </c>
       <c r="E34" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="35">
@@ -3738,7 +3738,7 @@
         <v>549</v>
       </c>
       <c r="E36" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="37">
@@ -3755,7 +3755,7 @@
         <v>550</v>
       </c>
       <c r="E37" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="38">
@@ -3772,7 +3772,7 @@
         <v>551</v>
       </c>
       <c r="E38" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="39">
@@ -3789,7 +3789,7 @@
         <v>552</v>
       </c>
       <c r="E39" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="40">
@@ -3823,7 +3823,7 @@
         <v>554</v>
       </c>
       <c r="E41" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="42">
@@ -3840,7 +3840,7 @@
         <v>555</v>
       </c>
       <c r="E42" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="43">
@@ -3857,7 +3857,7 @@
         <v>556</v>
       </c>
       <c r="E43" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="44">
@@ -3874,7 +3874,7 @@
         <v>557</v>
       </c>
       <c r="E44" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="45">
@@ -3891,7 +3891,7 @@
         <v>558</v>
       </c>
       <c r="E45" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="46">
@@ -3942,7 +3942,7 @@
         <v>561</v>
       </c>
       <c r="E48" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="49">
@@ -3959,7 +3959,7 @@
         <v>562</v>
       </c>
       <c r="E49" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="50">
@@ -3976,7 +3976,7 @@
         <v>563</v>
       </c>
       <c r="E50" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="51">
@@ -3993,7 +3993,7 @@
         <v>564</v>
       </c>
       <c r="E51" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="52">
@@ -4027,7 +4027,7 @@
         <v>566</v>
       </c>
       <c r="E53" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="54">
@@ -4044,7 +4044,7 @@
         <v>567</v>
       </c>
       <c r="E54" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="55">
@@ -4061,7 +4061,7 @@
         <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="56">
@@ -4078,7 +4078,7 @@
         <v>569</v>
       </c>
       <c r="E56" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="57">
@@ -4095,7 +4095,7 @@
         <v>570</v>
       </c>
       <c r="E57" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="58">
@@ -4112,7 +4112,7 @@
         <v>571</v>
       </c>
       <c r="E58" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="59">
@@ -4129,7 +4129,7 @@
         <v>572</v>
       </c>
       <c r="E59" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="60">
@@ -4146,7 +4146,7 @@
         <v>573</v>
       </c>
       <c r="E60" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="61">
@@ -4163,7 +4163,7 @@
         <v>574</v>
       </c>
       <c r="E61" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="62">
@@ -4197,7 +4197,7 @@
         <v>576</v>
       </c>
       <c r="E63" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="64">
@@ -4231,7 +4231,7 @@
         <v>578</v>
       </c>
       <c r="E65" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="66">
@@ -4248,7 +4248,7 @@
         <v>579</v>
       </c>
       <c r="E66" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="67">
@@ -4299,7 +4299,7 @@
         <v>582</v>
       </c>
       <c r="E69" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="70">
@@ -4316,7 +4316,7 @@
         <v>583</v>
       </c>
       <c r="E70" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="71">
@@ -4333,7 +4333,7 @@
         <v>584</v>
       </c>
       <c r="E71" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="72">
@@ -4367,7 +4367,7 @@
         <v>586</v>
       </c>
       <c r="E73" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="74">
@@ -4384,7 +4384,7 @@
         <v>587</v>
       </c>
       <c r="E74" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="75">
@@ -4401,7 +4401,7 @@
         <v>588</v>
       </c>
       <c r="E75" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="76">
@@ -4452,7 +4452,7 @@
         <v>591</v>
       </c>
       <c r="E78" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="79">
@@ -4486,7 +4486,7 @@
         <v>593</v>
       </c>
       <c r="E80" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="81">
@@ -4503,7 +4503,7 @@
         <v>594</v>
       </c>
       <c r="E81" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="82">
@@ -4520,7 +4520,7 @@
         <v>595</v>
       </c>
       <c r="E82" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="83">
@@ -4554,7 +4554,7 @@
         <v>597</v>
       </c>
       <c r="E84" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="85">
@@ -4571,7 +4571,7 @@
         <v>598</v>
       </c>
       <c r="E85" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="86">
@@ -4605,7 +4605,7 @@
         <v>600</v>
       </c>
       <c r="E87" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="88">
@@ -4622,7 +4622,7 @@
         <v>601</v>
       </c>
       <c r="E88" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="89">
@@ -4673,7 +4673,7 @@
         <v>604</v>
       </c>
       <c r="E91" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="92">
@@ -4707,7 +4707,7 @@
         <v>606</v>
       </c>
       <c r="E93" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="94">
@@ -4775,7 +4775,7 @@
         <v>610</v>
       </c>
       <c r="E97" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="98">
@@ -4792,7 +4792,7 @@
         <v>611</v>
       </c>
       <c r="E98" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="99">
@@ -4809,7 +4809,7 @@
         <v>612</v>
       </c>
       <c r="E99" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="100">
@@ -4826,7 +4826,7 @@
         <v>613</v>
       </c>
       <c r="E100" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="101">
@@ -4877,7 +4877,7 @@
         <v>616</v>
       </c>
       <c r="E103" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="104">
@@ -4911,7 +4911,7 @@
         <v>618</v>
       </c>
       <c r="E105" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="106">
@@ -4945,7 +4945,7 @@
         <v>620</v>
       </c>
       <c r="E107" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="108">
@@ -4979,7 +4979,7 @@
         <v>622</v>
       </c>
       <c r="E109" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="110">
@@ -4996,7 +4996,7 @@
         <v>623</v>
       </c>
       <c r="E110" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="111">
@@ -5030,7 +5030,7 @@
         <v>625</v>
       </c>
       <c r="E112" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="113">
@@ -5047,7 +5047,7 @@
         <v>626</v>
       </c>
       <c r="E113" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="114">
@@ -5064,7 +5064,7 @@
         <v>627</v>
       </c>
       <c r="E114" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="115">
@@ -5081,7 +5081,7 @@
         <v>628</v>
       </c>
       <c r="E115" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="116">
@@ -5098,7 +5098,7 @@
         <v>629</v>
       </c>
       <c r="E116" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="117">
@@ -5115,7 +5115,7 @@
         <v>630</v>
       </c>
       <c r="E117" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="118">
@@ -5132,7 +5132,7 @@
         <v>631</v>
       </c>
       <c r="E118" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="119">
@@ -5166,7 +5166,7 @@
         <v>633</v>
       </c>
       <c r="E120" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="121">
@@ -5217,7 +5217,7 @@
         <v>636</v>
       </c>
       <c r="E123" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="124">
@@ -5234,7 +5234,7 @@
         <v>637</v>
       </c>
       <c r="E124" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="125">
@@ -5285,7 +5285,7 @@
         <v>640</v>
       </c>
       <c r="E127" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="128">
@@ -5336,7 +5336,7 @@
         <v>643</v>
       </c>
       <c r="E130" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="131">
@@ -5421,7 +5421,7 @@
         <v>648</v>
       </c>
       <c r="E135" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="136">
@@ -5489,7 +5489,7 @@
         <v>652</v>
       </c>
       <c r="E139" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="140">
@@ -5506,7 +5506,7 @@
         <v>653</v>
       </c>
       <c r="E140" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="141">
@@ -5523,7 +5523,7 @@
         <v>654</v>
       </c>
       <c r="E141" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="142">
@@ -5540,7 +5540,7 @@
         <v>655</v>
       </c>
       <c r="E142" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="143">
@@ -5659,7 +5659,7 @@
         <v>662</v>
       </c>
       <c r="E149" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="150">
@@ -5676,7 +5676,7 @@
         <v>663</v>
       </c>
       <c r="E150" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="151">
@@ -5693,7 +5693,7 @@
         <v>664</v>
       </c>
       <c r="E151" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="152">
@@ -5710,7 +5710,7 @@
         <v>665</v>
       </c>
       <c r="E152" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="153">
@@ -5727,7 +5727,7 @@
         <v>666</v>
       </c>
       <c r="E153" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="154">
@@ -5744,7 +5744,7 @@
         <v>667</v>
       </c>
       <c r="E154" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="155">
@@ -5761,7 +5761,7 @@
         <v>668</v>
       </c>
       <c r="E155" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="156">
@@ -5778,7 +5778,7 @@
         <v>669</v>
       </c>
       <c r="E156" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="157">
@@ -5795,7 +5795,7 @@
         <v>670</v>
       </c>
       <c r="E157" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="158">
@@ -5812,7 +5812,7 @@
         <v>671</v>
       </c>
       <c r="E158" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="159">
@@ -5846,7 +5846,7 @@
         <v>673</v>
       </c>
       <c r="E160" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="161">
@@ -5863,7 +5863,7 @@
         <v>674</v>
       </c>
       <c r="E161" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="162">
@@ -5880,7 +5880,7 @@
         <v>675</v>
       </c>
       <c r="E162" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="163">
@@ -5931,7 +5931,7 @@
         <v>678</v>
       </c>
       <c r="E165" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="166">
@@ -5999,7 +5999,7 @@
         <v>682</v>
       </c>
       <c r="E169" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="170">
@@ -6016,7 +6016,7 @@
         <v>683</v>
       </c>
       <c r="E170" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="171">
@@ -6050,7 +6050,7 @@
         <v>685</v>
       </c>
       <c r="E172" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="173">
@@ -6067,7 +6067,7 @@
         <v>686</v>
       </c>
       <c r="E173" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="174">
@@ -6101,7 +6101,7 @@
         <v>688</v>
       </c>
       <c r="E175" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="176">
@@ -6135,7 +6135,7 @@
         <v>690</v>
       </c>
       <c r="E177" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="178">
@@ -6152,7 +6152,7 @@
         <v>691</v>
       </c>
       <c r="E178" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="179">
@@ -6186,7 +6186,7 @@
         <v>693</v>
       </c>
       <c r="E180" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="181">
@@ -6203,7 +6203,7 @@
         <v>694</v>
       </c>
       <c r="E181" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="182">
@@ -6220,7 +6220,7 @@
         <v>695</v>
       </c>
       <c r="E182" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="183">
@@ -6237,7 +6237,7 @@
         <v>696</v>
       </c>
       <c r="E183" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="184">
@@ -6254,7 +6254,7 @@
         <v>697</v>
       </c>
       <c r="E184" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="185">
@@ -6271,7 +6271,7 @@
         <v>698</v>
       </c>
       <c r="E185" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="186">
@@ -6288,7 +6288,7 @@
         <v>699</v>
       </c>
       <c r="E186" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="187">
@@ -6305,7 +6305,7 @@
         <v>700</v>
       </c>
       <c r="E187" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="188">
@@ -6322,7 +6322,7 @@
         <v>701</v>
       </c>
       <c r="E188" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="189">
@@ -6339,7 +6339,7 @@
         <v>702</v>
       </c>
       <c r="E189" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="190">
@@ -6373,7 +6373,7 @@
         <v>704</v>
       </c>
       <c r="E191" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="192">
@@ -6475,7 +6475,7 @@
         <v>710</v>
       </c>
       <c r="E197" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="198">
@@ -6492,7 +6492,7 @@
         <v>711</v>
       </c>
       <c r="E198" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="199">
@@ -6509,7 +6509,7 @@
         <v>712</v>
       </c>
       <c r="E199" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="200">
@@ -6526,7 +6526,7 @@
         <v>713</v>
       </c>
       <c r="E200" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="201">
@@ -6577,7 +6577,7 @@
         <v>716</v>
       </c>
       <c r="E203" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="204">
@@ -6594,7 +6594,7 @@
         <v>717</v>
       </c>
       <c r="E204" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="205">
@@ -6662,7 +6662,7 @@
         <v>721</v>
       </c>
       <c r="E208" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="209">
@@ -6730,7 +6730,7 @@
         <v>725</v>
       </c>
       <c r="E212" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="213">
@@ -6747,7 +6747,7 @@
         <v>726</v>
       </c>
       <c r="E213" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="214">
@@ -6832,7 +6832,7 @@
         <v>731</v>
       </c>
       <c r="E218" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="219">
@@ -6849,7 +6849,7 @@
         <v>732</v>
       </c>
       <c r="E219" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="220">
@@ -6866,7 +6866,7 @@
         <v>733</v>
       </c>
       <c r="E220" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="221">
@@ -6883,7 +6883,7 @@
         <v>734</v>
       </c>
       <c r="E221" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="222">
@@ -6900,7 +6900,7 @@
         <v>735</v>
       </c>
       <c r="E222" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="223">
@@ -6917,7 +6917,7 @@
         <v>736</v>
       </c>
       <c r="E223" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="224">
@@ -6951,7 +6951,7 @@
         <v>738</v>
       </c>
       <c r="E225" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="226">
@@ -7019,7 +7019,7 @@
         <v>742</v>
       </c>
       <c r="E229" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="230">
@@ -7036,7 +7036,7 @@
         <v>743</v>
       </c>
       <c r="E230" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="231">
@@ -7070,7 +7070,7 @@
         <v>745</v>
       </c>
       <c r="E232" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="233">
@@ -7189,7 +7189,7 @@
         <v>752</v>
       </c>
       <c r="E239" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="240">
@@ -7206,7 +7206,7 @@
         <v>753</v>
       </c>
       <c r="E240" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="241">
@@ -7223,7 +7223,7 @@
         <v>754</v>
       </c>
       <c r="E241" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="242">
@@ -7257,7 +7257,7 @@
         <v>756</v>
       </c>
       <c r="E243" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="244">
@@ -7274,7 +7274,7 @@
         <v>757</v>
       </c>
       <c r="E244" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="245">
@@ -7359,7 +7359,7 @@
         <v>762</v>
       </c>
       <c r="E249" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="250">
@@ -7427,7 +7427,7 @@
         <v>766</v>
       </c>
       <c r="E253" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="254">
@@ -7444,7 +7444,7 @@
         <v>767</v>
       </c>
       <c r="E254" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="255">
@@ -7512,7 +7512,7 @@
         <v>747</v>
       </c>
       <c r="E258" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="259">
@@ -7529,7 +7529,7 @@
         <v>746</v>
       </c>
       <c r="E259" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="260">
@@ -7546,7 +7546,7 @@
         <v>771</v>
       </c>
       <c r="E260" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="261">
@@ -7563,7 +7563,7 @@
         <v>772</v>
       </c>
       <c r="E261" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="262">
@@ -7614,7 +7614,7 @@
         <v>775</v>
       </c>
       <c r="E264" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="265">
@@ -7631,7 +7631,7 @@
         <v>776</v>
       </c>
       <c r="E265" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="266">
@@ -7648,7 +7648,7 @@
         <v>777</v>
       </c>
       <c r="E266" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="267">
@@ -7665,7 +7665,7 @@
         <v>778</v>
       </c>
       <c r="E267" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="268">
@@ -7682,7 +7682,7 @@
         <v>779</v>
       </c>
       <c r="E268" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="269">
@@ -7699,7 +7699,7 @@
         <v>780</v>
       </c>
       <c r="E269" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="270">
@@ -7733,7 +7733,7 @@
         <v>780</v>
       </c>
       <c r="E271" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="272">
@@ -7750,7 +7750,7 @@
         <v>782</v>
       </c>
       <c r="E272" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="273">
@@ -7784,7 +7784,7 @@
         <v>784</v>
       </c>
       <c r="E274" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="275">
@@ -7801,7 +7801,7 @@
         <v>785</v>
       </c>
       <c r="E275" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="276">
@@ -7818,7 +7818,7 @@
         <v>786</v>
       </c>
       <c r="E276" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="277">
@@ -7835,7 +7835,7 @@
         <v>787</v>
       </c>
       <c r="E277" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="278">
@@ -7869,7 +7869,7 @@
         <v>789</v>
       </c>
       <c r="E279" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="280">
@@ -7886,7 +7886,7 @@
         <v>790</v>
       </c>
       <c r="E280" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="281">
@@ -7920,7 +7920,7 @@
         <v>792</v>
       </c>
       <c r="E282" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="283">
@@ -7937,7 +7937,7 @@
         <v>793</v>
       </c>
       <c r="E283" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="284">
@@ -8005,7 +8005,7 @@
         <v>797</v>
       </c>
       <c r="E287" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="288">
@@ -8022,7 +8022,7 @@
         <v>798</v>
       </c>
       <c r="E288" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="289">
@@ -8039,7 +8039,7 @@
         <v>799</v>
       </c>
       <c r="E289" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="290">
@@ -8073,7 +8073,7 @@
         <v>801</v>
       </c>
       <c r="E291" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="292">
@@ -8124,7 +8124,7 @@
         <v>804</v>
       </c>
       <c r="E294" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="295">
@@ -8141,7 +8141,7 @@
         <v>805</v>
       </c>
       <c r="E295" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="296">
@@ -8209,7 +8209,7 @@
         <v>809</v>
       </c>
       <c r="E299" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="300">
@@ -8226,7 +8226,7 @@
         <v>810</v>
       </c>
       <c r="E300" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="301">
@@ -8277,7 +8277,7 @@
         <v>813</v>
       </c>
       <c r="E303" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="304">
@@ -8328,7 +8328,7 @@
         <v>816</v>
       </c>
       <c r="E306" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="307">
@@ -8345,7 +8345,7 @@
         <v>817</v>
       </c>
       <c r="E307" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="308">
@@ -8362,7 +8362,7 @@
         <v>818</v>
       </c>
       <c r="E308" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="309">
@@ -8379,7 +8379,7 @@
         <v>819</v>
       </c>
       <c r="E309" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="310">
@@ -8396,7 +8396,7 @@
         <v>820</v>
       </c>
       <c r="E310" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="311">
@@ -8464,7 +8464,7 @@
         <v>824</v>
       </c>
       <c r="E314" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="315">
@@ -8481,7 +8481,7 @@
         <v>825</v>
       </c>
       <c r="E315" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="316">
@@ -8532,7 +8532,7 @@
         <v>828</v>
       </c>
       <c r="E318" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="319">
@@ -8566,7 +8566,7 @@
         <v>830</v>
       </c>
       <c r="E320" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="321">
@@ -8583,7 +8583,7 @@
         <v>831</v>
       </c>
       <c r="E321" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="322">
@@ -8600,7 +8600,7 @@
         <v>832</v>
       </c>
       <c r="E322" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="323">
@@ -8617,7 +8617,7 @@
         <v>833</v>
       </c>
       <c r="E323" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="324">
@@ -8634,7 +8634,7 @@
         <v>834</v>
       </c>
       <c r="E324" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="325">
@@ -8651,7 +8651,7 @@
         <v>835</v>
       </c>
       <c r="E325" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="326">
@@ -8702,7 +8702,7 @@
         <v>838</v>
       </c>
       <c r="E328" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="329">
@@ -8736,7 +8736,7 @@
         <v>840</v>
       </c>
       <c r="E330" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="331">
@@ -8753,7 +8753,7 @@
         <v>841</v>
       </c>
       <c r="E331" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="332">
@@ -8770,7 +8770,7 @@
         <v>842</v>
       </c>
       <c r="E332" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="333">
@@ -8787,7 +8787,7 @@
         <v>843</v>
       </c>
       <c r="E333" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="334">
@@ -8838,7 +8838,7 @@
         <v>846</v>
       </c>
       <c r="E336" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="337">
@@ -8906,7 +8906,7 @@
         <v>850</v>
       </c>
       <c r="E340" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="341">
@@ -8923,7 +8923,7 @@
         <v>851</v>
       </c>
       <c r="E341" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="342">
@@ -8940,7 +8940,7 @@
         <v>852</v>
       </c>
       <c r="E342" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="343">
@@ -8957,7 +8957,7 @@
         <v>853</v>
       </c>
       <c r="E343" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="344">
@@ -8974,7 +8974,7 @@
         <v>854</v>
       </c>
       <c r="E344" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="345">
@@ -8991,7 +8991,7 @@
         <v>855</v>
       </c>
       <c r="E345" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="346">
@@ -9008,7 +9008,7 @@
         <v>856</v>
       </c>
       <c r="E346" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="347">
@@ -9025,7 +9025,7 @@
         <v>857</v>
       </c>
       <c r="E347" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="348">
@@ -9042,7 +9042,7 @@
         <v>858</v>
       </c>
       <c r="E348" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="349">
@@ -9059,7 +9059,7 @@
         <v>859</v>
       </c>
       <c r="E349" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="350">
@@ -9093,7 +9093,7 @@
         <v>861</v>
       </c>
       <c r="E351" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="352">
@@ -9110,7 +9110,7 @@
         <v>862</v>
       </c>
       <c r="E352" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="353">
@@ -9127,7 +9127,7 @@
         <v>863</v>
       </c>
       <c r="E353" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="354">
@@ -9144,7 +9144,7 @@
         <v>864</v>
       </c>
       <c r="E354" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="355">
@@ -9161,7 +9161,7 @@
         <v>865</v>
       </c>
       <c r="E355" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="356">
@@ -9178,7 +9178,7 @@
         <v>866</v>
       </c>
       <c r="E356" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="357">
@@ -9195,7 +9195,7 @@
         <v>867</v>
       </c>
       <c r="E357" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="358">
@@ -9212,7 +9212,7 @@
         <v>868</v>
       </c>
       <c r="E358" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="359">
@@ -9229,7 +9229,7 @@
         <v>869</v>
       </c>
       <c r="E359" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="360">
@@ -9246,7 +9246,7 @@
         <v>870</v>
       </c>
       <c r="E360" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="361">
@@ -9263,7 +9263,7 @@
         <v>871</v>
       </c>
       <c r="E361" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="362">
@@ -9280,7 +9280,7 @@
         <v>872</v>
       </c>
       <c r="E362" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="363">
@@ -9297,7 +9297,7 @@
         <v>873</v>
       </c>
       <c r="E363" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="364">
@@ -9314,7 +9314,7 @@
         <v>874</v>
       </c>
       <c r="E364" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="365">
@@ -9331,7 +9331,7 @@
         <v>875</v>
       </c>
       <c r="E365" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="366">
@@ -9348,7 +9348,7 @@
         <v>876</v>
       </c>
       <c r="E366" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="367">
@@ -9399,7 +9399,7 @@
         <v>879</v>
       </c>
       <c r="E369" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="370">
@@ -9433,7 +9433,7 @@
         <v>881</v>
       </c>
       <c r="E371" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="372">
@@ -9450,7 +9450,7 @@
         <v>882</v>
       </c>
       <c r="E372" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="373">
@@ -9467,7 +9467,7 @@
         <v>883</v>
       </c>
       <c r="E373" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="374">
@@ -9484,7 +9484,7 @@
         <v>884</v>
       </c>
       <c r="E374" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="375">
@@ -9501,7 +9501,7 @@
         <v>885</v>
       </c>
       <c r="E375" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="376">
@@ -9518,7 +9518,7 @@
         <v>886</v>
       </c>
       <c r="E376" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="377">
@@ -9535,7 +9535,7 @@
         <v>887</v>
       </c>
       <c r="E377" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="378">
@@ -9552,7 +9552,7 @@
         <v>888</v>
       </c>
       <c r="E378" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="379">
@@ -9603,7 +9603,7 @@
         <v>891</v>
       </c>
       <c r="E381" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="382">
@@ -9620,7 +9620,7 @@
         <v>892</v>
       </c>
       <c r="E382" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="383">
@@ -9637,7 +9637,7 @@
         <v>893</v>
       </c>
       <c r="E383" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="384">
@@ -9705,7 +9705,7 @@
         <v>897</v>
       </c>
       <c r="E387" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="388">
@@ -9722,7 +9722,7 @@
         <v>898</v>
       </c>
       <c r="E388" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="389">
@@ -9756,7 +9756,7 @@
         <v>900</v>
       </c>
       <c r="E390" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="391">
@@ -9773,7 +9773,7 @@
         <v>901</v>
       </c>
       <c r="E391" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="392">
@@ -9790,7 +9790,7 @@
         <v>902</v>
       </c>
       <c r="E392" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="393">
@@ -9807,7 +9807,7 @@
         <v>903</v>
       </c>
       <c r="E393" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="394">
@@ -9824,7 +9824,7 @@
         <v>904</v>
       </c>
       <c r="E394" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="395">
@@ -9841,7 +9841,7 @@
         <v>905</v>
       </c>
       <c r="E395" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="396">
@@ -9858,7 +9858,7 @@
         <v>906</v>
       </c>
       <c r="E396" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="397">
@@ -9892,7 +9892,7 @@
         <v>908</v>
       </c>
       <c r="E398" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="399">
@@ -9909,7 +9909,7 @@
         <v>909</v>
       </c>
       <c r="E399" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="400">
@@ -9926,7 +9926,7 @@
         <v>910</v>
       </c>
       <c r="E400" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="401">
@@ -9943,7 +9943,7 @@
         <v>911</v>
       </c>
       <c r="E401" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="402">
@@ -9977,7 +9977,7 @@
         <v>913</v>
       </c>
       <c r="E403" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="404">
@@ -9994,7 +9994,7 @@
         <v>914</v>
       </c>
       <c r="E404" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="405">
@@ -10011,7 +10011,7 @@
         <v>915</v>
       </c>
       <c r="E405" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="406">
@@ -10079,7 +10079,7 @@
         <v>919</v>
       </c>
       <c r="E409" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="410">
@@ -10113,7 +10113,7 @@
         <v>921</v>
       </c>
       <c r="E411" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="412">
@@ -10181,7 +10181,7 @@
         <v>925</v>
       </c>
       <c r="E415" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="416">
@@ -10198,7 +10198,7 @@
         <v>926</v>
       </c>
       <c r="E416" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="417">
@@ -10283,7 +10283,7 @@
         <v>931</v>
       </c>
       <c r="E421" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="422">
@@ -10300,7 +10300,7 @@
         <v>932</v>
       </c>
       <c r="E422" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="423">
@@ -10317,7 +10317,7 @@
         <v>933</v>
       </c>
       <c r="E423" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="424">
@@ -10419,7 +10419,7 @@
         <v>939</v>
       </c>
       <c r="E429" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="430">
@@ -10436,7 +10436,7 @@
         <v>940</v>
       </c>
       <c r="E430" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="431">
@@ -10470,7 +10470,7 @@
         <v>942</v>
       </c>
       <c r="E432" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="433">
@@ -10487,7 +10487,7 @@
         <v>943</v>
       </c>
       <c r="E433" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="434">
@@ -10504,7 +10504,7 @@
         <v>944</v>
       </c>
       <c r="E434" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="435">
@@ -10521,7 +10521,7 @@
         <v>945</v>
       </c>
       <c r="E435" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="436">
@@ -10538,7 +10538,7 @@
         <v>946</v>
       </c>
       <c r="E436" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="437">
@@ -10572,7 +10572,7 @@
         <v>948</v>
       </c>
       <c r="E438" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="439">
@@ -10589,7 +10589,7 @@
         <v>949</v>
       </c>
       <c r="E439" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="440">
@@ -10606,7 +10606,7 @@
         <v>950</v>
       </c>
       <c r="E440" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="441">
@@ -10623,7 +10623,7 @@
         <v>951</v>
       </c>
       <c r="E441" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="442">
@@ -10640,7 +10640,7 @@
         <v>952</v>
       </c>
       <c r="E442" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="443">
@@ -10674,7 +10674,7 @@
         <v>954</v>
       </c>
       <c r="E444" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="445">
@@ -10691,7 +10691,7 @@
         <v>955</v>
       </c>
       <c r="E445" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="446">
@@ -10708,7 +10708,7 @@
         <v>956</v>
       </c>
       <c r="E446" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="447">
@@ -10725,7 +10725,7 @@
         <v>957</v>
       </c>
       <c r="E447" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="448">
@@ -10742,7 +10742,7 @@
         <v>958</v>
       </c>
       <c r="E448" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="449">
@@ -10759,7 +10759,7 @@
         <v>959</v>
       </c>
       <c r="E449" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="450">
@@ -10776,7 +10776,7 @@
         <v>960</v>
       </c>
       <c r="E450" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="451">
@@ -10793,7 +10793,7 @@
         <v>961</v>
       </c>
       <c r="E451" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="452">
@@ -10810,7 +10810,7 @@
         <v>962</v>
       </c>
       <c r="E452" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="453">
@@ -10827,7 +10827,7 @@
         <v>963</v>
       </c>
       <c r="E453" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="454">
@@ -10844,7 +10844,7 @@
         <v>964</v>
       </c>
       <c r="E454" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="455">
@@ -10861,7 +10861,7 @@
         <v>965</v>
       </c>
       <c r="E455" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="456">
@@ -10878,7 +10878,7 @@
         <v>966</v>
       </c>
       <c r="E456" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="457">
@@ -10895,7 +10895,7 @@
         <v>967</v>
       </c>
       <c r="E457" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="458">
@@ -10912,7 +10912,7 @@
         <v>968</v>
       </c>
       <c r="E458" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="459">
@@ -10929,7 +10929,7 @@
         <v>969</v>
       </c>
       <c r="E459" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="460">
@@ -10963,7 +10963,7 @@
         <v>971</v>
       </c>
       <c r="E461" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="462">
@@ -10980,7 +10980,7 @@
         <v>972</v>
       </c>
       <c r="E462" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="463">
@@ -10997,7 +10997,7 @@
         <v>973</v>
       </c>
       <c r="E463" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="464">
@@ -11014,7 +11014,7 @@
         <v>974</v>
       </c>
       <c r="E464" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="465">
@@ -11031,7 +11031,7 @@
         <v>975</v>
       </c>
       <c r="E465" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="466">
@@ -11048,7 +11048,7 @@
         <v>976</v>
       </c>
       <c r="E466" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="467">
@@ -11065,7 +11065,7 @@
         <v>977</v>
       </c>
       <c r="E467" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="468">
@@ -11082,7 +11082,7 @@
         <v>978</v>
       </c>
       <c r="E468" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="469">
@@ -11099,7 +11099,7 @@
         <v>979</v>
       </c>
       <c r="E469" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="470">
@@ -11116,7 +11116,7 @@
         <v>980</v>
       </c>
       <c r="E470" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="471">
@@ -11150,7 +11150,7 @@
         <v>982</v>
       </c>
       <c r="E472" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="473">
@@ -11167,7 +11167,7 @@
         <v>983</v>
       </c>
       <c r="E473" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="474">
@@ -11184,7 +11184,7 @@
         <v>984</v>
       </c>
       <c r="E474" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="475">
@@ -11201,7 +11201,7 @@
         <v>985</v>
       </c>
       <c r="E475" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="476">
@@ -11218,7 +11218,7 @@
         <v>986</v>
       </c>
       <c r="E476" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="477">
@@ -11252,7 +11252,7 @@
         <v>988</v>
       </c>
       <c r="E478" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="479">
@@ -11269,7 +11269,7 @@
         <v>989</v>
       </c>
       <c r="E479" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="480">
@@ -11286,7 +11286,7 @@
         <v>990</v>
       </c>
       <c r="E480" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="481">
@@ -11303,7 +11303,7 @@
         <v>991</v>
       </c>
       <c r="E481" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="482">
@@ -11320,7 +11320,7 @@
         <v>992</v>
       </c>
       <c r="E482" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="483">
@@ -11337,7 +11337,7 @@
         <v>993</v>
       </c>
       <c r="E483" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="484">
@@ -11371,7 +11371,7 @@
         <v>995</v>
       </c>
       <c r="E485" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="486">
@@ -11388,7 +11388,7 @@
         <v>996</v>
       </c>
       <c r="E486" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="487">
@@ -11405,7 +11405,7 @@
         <v>997</v>
       </c>
       <c r="E487" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="488">
@@ -11422,7 +11422,7 @@
         <v>998</v>
       </c>
       <c r="E488" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="489">
@@ -11456,7 +11456,7 @@
         <v>1000</v>
       </c>
       <c r="E490" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="491">
@@ -11473,7 +11473,7 @@
         <v>1001</v>
       </c>
       <c r="E491" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="492">
@@ -11490,7 +11490,7 @@
         <v>1002</v>
       </c>
       <c r="E492" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="493">
@@ -11507,7 +11507,7 @@
         <v>1003</v>
       </c>
       <c r="E493" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="494">
@@ -11524,7 +11524,7 @@
         <v>1004</v>
       </c>
       <c r="E494" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="495">
@@ -11541,7 +11541,7 @@
         <v>1005</v>
       </c>
       <c r="E495" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="496">
@@ -11558,7 +11558,7 @@
         <v>1006</v>
       </c>
       <c r="E496" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="497">
@@ -11592,7 +11592,7 @@
         <v>1008</v>
       </c>
       <c r="E498" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="499">
@@ -11609,7 +11609,7 @@
         <v>1009</v>
       </c>
       <c r="E499" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="500">
@@ -11660,7 +11660,7 @@
         <v>1012</v>
       </c>
       <c r="E502" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="503">
@@ -11677,7 +11677,7 @@
         <v>1013</v>
       </c>
       <c r="E503" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="504">
@@ -11711,7 +11711,7 @@
         <v>1015</v>
       </c>
       <c r="E505" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="506">
@@ -11728,7 +11728,7 @@
         <v>1016</v>
       </c>
       <c r="E506" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="507">
@@ -11745,7 +11745,7 @@
         <v>1017</v>
       </c>
       <c r="E507" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="508">
@@ -11762,7 +11762,7 @@
         <v>1018</v>
       </c>
       <c r="E508" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="509">
@@ -11779,7 +11779,7 @@
         <v>1019</v>
       </c>
       <c r="E509" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="510">
@@ -11796,7 +11796,7 @@
         <v>1020</v>
       </c>
       <c r="E510" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="511">
@@ -11813,7 +11813,7 @@
         <v>1021</v>
       </c>
       <c r="E511" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="512">
@@ -11830,7 +11830,7 @@
         <v>1022</v>
       </c>
       <c r="E512" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
   </sheetData>

--- a/Final Cluster.xlsx
+++ b/Final Cluster.xlsx
@@ -23,7 +23,7 @@
     <t>kabupaten</t>
   </si>
   <si>
-    <t>Res_ifafgwc$cluster</t>
+    <t>Res_fgwc$cluster</t>
   </si>
   <si>
     <t>1</t>
@@ -3160,7 +3160,7 @@
         <v>515</v>
       </c>
       <c r="E2" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
@@ -3177,7 +3177,7 @@
         <v>516</v>
       </c>
       <c r="E3" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
@@ -3194,7 +3194,7 @@
         <v>517</v>
       </c>
       <c r="E4" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
@@ -3211,7 +3211,7 @@
         <v>518</v>
       </c>
       <c r="E5" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -3228,7 +3228,7 @@
         <v>519</v>
       </c>
       <c r="E6" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
@@ -3262,7 +3262,7 @@
         <v>521</v>
       </c>
       <c r="E8" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
@@ -3296,7 +3296,7 @@
         <v>523</v>
       </c>
       <c r="E10" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
@@ -3313,7 +3313,7 @@
         <v>524</v>
       </c>
       <c r="E11" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
@@ -3330,7 +3330,7 @@
         <v>525</v>
       </c>
       <c r="E12" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
@@ -3347,7 +3347,7 @@
         <v>526</v>
       </c>
       <c r="E13" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="14">
@@ -3364,7 +3364,7 @@
         <v>527</v>
       </c>
       <c r="E14" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="15">
@@ -3381,7 +3381,7 @@
         <v>528</v>
       </c>
       <c r="E15" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="16">
@@ -3398,7 +3398,7 @@
         <v>529</v>
       </c>
       <c r="E16" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="17">
@@ -3415,7 +3415,7 @@
         <v>530</v>
       </c>
       <c r="E17" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="18">
@@ -3449,7 +3449,7 @@
         <v>532</v>
       </c>
       <c r="E19" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="20">
@@ -3500,7 +3500,7 @@
         <v>535</v>
       </c>
       <c r="E22" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="23">
@@ -3534,7 +3534,7 @@
         <v>537</v>
       </c>
       <c r="E24" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="25">
@@ -3551,7 +3551,7 @@
         <v>538</v>
       </c>
       <c r="E25" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="26">
@@ -3568,7 +3568,7 @@
         <v>539</v>
       </c>
       <c r="E26" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="27">
@@ -3585,7 +3585,7 @@
         <v>540</v>
       </c>
       <c r="E27" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="28">
@@ -3602,7 +3602,7 @@
         <v>541</v>
       </c>
       <c r="E28" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="29">
@@ -3619,7 +3619,7 @@
         <v>542</v>
       </c>
       <c r="E29" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="30">
@@ -3636,7 +3636,7 @@
         <v>543</v>
       </c>
       <c r="E30" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="31">
@@ -3653,7 +3653,7 @@
         <v>544</v>
       </c>
       <c r="E31" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="32">
@@ -3670,7 +3670,7 @@
         <v>545</v>
       </c>
       <c r="E32" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="33">
@@ -3687,7 +3687,7 @@
         <v>546</v>
       </c>
       <c r="E33" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="34">
@@ -3704,7 +3704,7 @@
         <v>547</v>
       </c>
       <c r="E34" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="35">
@@ -3738,7 +3738,7 @@
         <v>549</v>
       </c>
       <c r="E36" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="37">
@@ -3755,7 +3755,7 @@
         <v>550</v>
       </c>
       <c r="E37" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="38">
@@ -3772,7 +3772,7 @@
         <v>551</v>
       </c>
       <c r="E38" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="39">
@@ -3789,7 +3789,7 @@
         <v>552</v>
       </c>
       <c r="E39" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="40">
@@ -3823,7 +3823,7 @@
         <v>554</v>
       </c>
       <c r="E41" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="42">
@@ -3840,7 +3840,7 @@
         <v>555</v>
       </c>
       <c r="E42" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="43">
@@ -3857,7 +3857,7 @@
         <v>556</v>
       </c>
       <c r="E43" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="44">
@@ -3874,7 +3874,7 @@
         <v>557</v>
       </c>
       <c r="E44" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="45">
@@ -3891,7 +3891,7 @@
         <v>558</v>
       </c>
       <c r="E45" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="46">
@@ -3942,7 +3942,7 @@
         <v>561</v>
       </c>
       <c r="E48" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="49">
@@ -3959,7 +3959,7 @@
         <v>562</v>
       </c>
       <c r="E49" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="50">
@@ -3976,7 +3976,7 @@
         <v>563</v>
       </c>
       <c r="E50" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="51">
@@ -3993,7 +3993,7 @@
         <v>564</v>
       </c>
       <c r="E51" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="52">
@@ -4027,7 +4027,7 @@
         <v>566</v>
       </c>
       <c r="E53" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="54">
@@ -4044,7 +4044,7 @@
         <v>567</v>
       </c>
       <c r="E54" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="55">
@@ -4061,7 +4061,7 @@
         <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="56">
@@ -4078,7 +4078,7 @@
         <v>569</v>
       </c>
       <c r="E56" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="57">
@@ -4095,7 +4095,7 @@
         <v>570</v>
       </c>
       <c r="E57" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="58">
@@ -4112,7 +4112,7 @@
         <v>571</v>
       </c>
       <c r="E58" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="59">
@@ -4129,7 +4129,7 @@
         <v>572</v>
       </c>
       <c r="E59" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="60">
@@ -4146,7 +4146,7 @@
         <v>573</v>
       </c>
       <c r="E60" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="61">
@@ -4163,7 +4163,7 @@
         <v>574</v>
       </c>
       <c r="E61" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="62">
@@ -4197,7 +4197,7 @@
         <v>576</v>
       </c>
       <c r="E63" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="64">
@@ -4231,7 +4231,7 @@
         <v>578</v>
       </c>
       <c r="E65" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="66">
@@ -4248,7 +4248,7 @@
         <v>579</v>
       </c>
       <c r="E66" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="67">
@@ -4299,7 +4299,7 @@
         <v>582</v>
       </c>
       <c r="E69" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="70">
@@ -4316,7 +4316,7 @@
         <v>583</v>
       </c>
       <c r="E70" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="71">
@@ -4333,7 +4333,7 @@
         <v>584</v>
       </c>
       <c r="E71" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="72">
@@ -4367,7 +4367,7 @@
         <v>586</v>
       </c>
       <c r="E73" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="74">
@@ -4384,7 +4384,7 @@
         <v>587</v>
       </c>
       <c r="E74" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="75">
@@ -4401,7 +4401,7 @@
         <v>588</v>
       </c>
       <c r="E75" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="76">
@@ -4452,7 +4452,7 @@
         <v>591</v>
       </c>
       <c r="E78" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="79">
@@ -4486,7 +4486,7 @@
         <v>593</v>
       </c>
       <c r="E80" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="81">
@@ -4503,7 +4503,7 @@
         <v>594</v>
       </c>
       <c r="E81" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="82">
@@ -4520,7 +4520,7 @@
         <v>595</v>
       </c>
       <c r="E82" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="83">
@@ -4554,7 +4554,7 @@
         <v>597</v>
       </c>
       <c r="E84" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="85">
@@ -4571,7 +4571,7 @@
         <v>598</v>
       </c>
       <c r="E85" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="86">
@@ -4605,7 +4605,7 @@
         <v>600</v>
       </c>
       <c r="E87" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="88">
@@ -4622,7 +4622,7 @@
         <v>601</v>
       </c>
       <c r="E88" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="89">
@@ -4673,7 +4673,7 @@
         <v>604</v>
       </c>
       <c r="E91" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="92">
@@ -4707,7 +4707,7 @@
         <v>606</v>
       </c>
       <c r="E93" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="94">
@@ -4775,7 +4775,7 @@
         <v>610</v>
       </c>
       <c r="E97" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="98">
@@ -4792,7 +4792,7 @@
         <v>611</v>
       </c>
       <c r="E98" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="99">
@@ -4809,7 +4809,7 @@
         <v>612</v>
       </c>
       <c r="E99" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="100">
@@ -4826,7 +4826,7 @@
         <v>613</v>
       </c>
       <c r="E100" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="101">
@@ -4877,7 +4877,7 @@
         <v>616</v>
       </c>
       <c r="E103" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="104">
@@ -4911,7 +4911,7 @@
         <v>618</v>
       </c>
       <c r="E105" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="106">
@@ -4945,7 +4945,7 @@
         <v>620</v>
       </c>
       <c r="E107" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="108">
@@ -4979,7 +4979,7 @@
         <v>622</v>
       </c>
       <c r="E109" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="110">
@@ -4996,7 +4996,7 @@
         <v>623</v>
       </c>
       <c r="E110" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="111">
@@ -5030,7 +5030,7 @@
         <v>625</v>
       </c>
       <c r="E112" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="113">
@@ -5047,7 +5047,7 @@
         <v>626</v>
       </c>
       <c r="E113" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="114">
@@ -5064,7 +5064,7 @@
         <v>627</v>
       </c>
       <c r="E114" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="115">
@@ -5081,7 +5081,7 @@
         <v>628</v>
       </c>
       <c r="E115" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="116">
@@ -5098,7 +5098,7 @@
         <v>629</v>
       </c>
       <c r="E116" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="117">
@@ -5115,7 +5115,7 @@
         <v>630</v>
       </c>
       <c r="E117" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="118">
@@ -5132,7 +5132,7 @@
         <v>631</v>
       </c>
       <c r="E118" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="119">
@@ -5166,7 +5166,7 @@
         <v>633</v>
       </c>
       <c r="E120" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="121">
@@ -5217,7 +5217,7 @@
         <v>636</v>
       </c>
       <c r="E123" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="124">
@@ -5234,7 +5234,7 @@
         <v>637</v>
       </c>
       <c r="E124" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="125">
@@ -5285,7 +5285,7 @@
         <v>640</v>
       </c>
       <c r="E127" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="128">
@@ -5336,7 +5336,7 @@
         <v>643</v>
       </c>
       <c r="E130" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="131">
@@ -5421,7 +5421,7 @@
         <v>648</v>
       </c>
       <c r="E135" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="136">
@@ -5489,7 +5489,7 @@
         <v>652</v>
       </c>
       <c r="E139" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="140">
@@ -5506,7 +5506,7 @@
         <v>653</v>
       </c>
       <c r="E140" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="141">
@@ -5523,7 +5523,7 @@
         <v>654</v>
       </c>
       <c r="E141" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="142">
@@ -5540,7 +5540,7 @@
         <v>655</v>
       </c>
       <c r="E142" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="143">
@@ -5659,7 +5659,7 @@
         <v>662</v>
       </c>
       <c r="E149" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="150">
@@ -5676,7 +5676,7 @@
         <v>663</v>
       </c>
       <c r="E150" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="151">
@@ -5693,7 +5693,7 @@
         <v>664</v>
       </c>
       <c r="E151" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="152">
@@ -5710,7 +5710,7 @@
         <v>665</v>
       </c>
       <c r="E152" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="153">
@@ -5727,7 +5727,7 @@
         <v>666</v>
       </c>
       <c r="E153" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="154">
@@ -5744,7 +5744,7 @@
         <v>667</v>
       </c>
       <c r="E154" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="155">
@@ -5761,7 +5761,7 @@
         <v>668</v>
       </c>
       <c r="E155" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="156">
@@ -5778,7 +5778,7 @@
         <v>669</v>
       </c>
       <c r="E156" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="157">
@@ -5795,7 +5795,7 @@
         <v>670</v>
       </c>
       <c r="E157" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="158">
@@ -5812,7 +5812,7 @@
         <v>671</v>
       </c>
       <c r="E158" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="159">
@@ -5846,7 +5846,7 @@
         <v>673</v>
       </c>
       <c r="E160" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="161">
@@ -5863,7 +5863,7 @@
         <v>674</v>
       </c>
       <c r="E161" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="162">
@@ -5880,7 +5880,7 @@
         <v>675</v>
       </c>
       <c r="E162" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="163">
@@ -5931,7 +5931,7 @@
         <v>678</v>
       </c>
       <c r="E165" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="166">
@@ -5999,7 +5999,7 @@
         <v>682</v>
       </c>
       <c r="E169" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="170">
@@ -6016,7 +6016,7 @@
         <v>683</v>
       </c>
       <c r="E170" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="171">
@@ -6050,7 +6050,7 @@
         <v>685</v>
       </c>
       <c r="E172" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="173">
@@ -6067,7 +6067,7 @@
         <v>686</v>
       </c>
       <c r="E173" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="174">
@@ -6101,7 +6101,7 @@
         <v>688</v>
       </c>
       <c r="E175" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="176">
@@ -6135,7 +6135,7 @@
         <v>690</v>
       </c>
       <c r="E177" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="178">
@@ -6152,7 +6152,7 @@
         <v>691</v>
       </c>
       <c r="E178" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="179">
@@ -6186,7 +6186,7 @@
         <v>693</v>
       </c>
       <c r="E180" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="181">
@@ -6203,7 +6203,7 @@
         <v>694</v>
       </c>
       <c r="E181" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="182">
@@ -6220,7 +6220,7 @@
         <v>695</v>
       </c>
       <c r="E182" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="183">
@@ -6237,7 +6237,7 @@
         <v>696</v>
       </c>
       <c r="E183" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="184">
@@ -6254,7 +6254,7 @@
         <v>697</v>
       </c>
       <c r="E184" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="185">
@@ -6271,7 +6271,7 @@
         <v>698</v>
       </c>
       <c r="E185" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="186">
@@ -6288,7 +6288,7 @@
         <v>699</v>
       </c>
       <c r="E186" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="187">
@@ -6305,7 +6305,7 @@
         <v>700</v>
       </c>
       <c r="E187" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="188">
@@ -6322,7 +6322,7 @@
         <v>701</v>
       </c>
       <c r="E188" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="189">
@@ -6339,7 +6339,7 @@
         <v>702</v>
       </c>
       <c r="E189" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="190">
@@ -6373,7 +6373,7 @@
         <v>704</v>
       </c>
       <c r="E191" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="192">
@@ -6475,7 +6475,7 @@
         <v>710</v>
       </c>
       <c r="E197" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="198">
@@ -6492,7 +6492,7 @@
         <v>711</v>
       </c>
       <c r="E198" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="199">
@@ -6509,7 +6509,7 @@
         <v>712</v>
       </c>
       <c r="E199" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="200">
@@ -6526,7 +6526,7 @@
         <v>713</v>
       </c>
       <c r="E200" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="201">
@@ -6577,7 +6577,7 @@
         <v>716</v>
       </c>
       <c r="E203" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="204">
@@ -6594,7 +6594,7 @@
         <v>717</v>
       </c>
       <c r="E204" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="205">
@@ -6662,7 +6662,7 @@
         <v>721</v>
       </c>
       <c r="E208" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="209">
@@ -6730,7 +6730,7 @@
         <v>725</v>
       </c>
       <c r="E212" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="213">
@@ -6747,7 +6747,7 @@
         <v>726</v>
       </c>
       <c r="E213" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="214">
@@ -6832,7 +6832,7 @@
         <v>731</v>
       </c>
       <c r="E218" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="219">
@@ -6849,7 +6849,7 @@
         <v>732</v>
       </c>
       <c r="E219" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="220">
@@ -6866,7 +6866,7 @@
         <v>733</v>
       </c>
       <c r="E220" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="221">
@@ -6883,7 +6883,7 @@
         <v>734</v>
       </c>
       <c r="E221" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="222">
@@ -6900,7 +6900,7 @@
         <v>735</v>
       </c>
       <c r="E222" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="223">
@@ -6917,7 +6917,7 @@
         <v>736</v>
       </c>
       <c r="E223" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="224">
@@ -6951,7 +6951,7 @@
         <v>738</v>
       </c>
       <c r="E225" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="226">
@@ -7019,7 +7019,7 @@
         <v>742</v>
       </c>
       <c r="E229" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="230">
@@ -7036,7 +7036,7 @@
         <v>743</v>
       </c>
       <c r="E230" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="231">
@@ -7070,7 +7070,7 @@
         <v>745</v>
       </c>
       <c r="E232" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="233">
@@ -7189,7 +7189,7 @@
         <v>752</v>
       </c>
       <c r="E239" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="240">
@@ -7206,7 +7206,7 @@
         <v>753</v>
       </c>
       <c r="E240" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="241">
@@ -7223,7 +7223,7 @@
         <v>754</v>
       </c>
       <c r="E241" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="242">
@@ -7257,7 +7257,7 @@
         <v>756</v>
       </c>
       <c r="E243" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="244">
@@ -7274,7 +7274,7 @@
         <v>757</v>
       </c>
       <c r="E244" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="245">
@@ -7359,7 +7359,7 @@
         <v>762</v>
       </c>
       <c r="E249" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="250">
@@ -7427,7 +7427,7 @@
         <v>766</v>
       </c>
       <c r="E253" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="254">
@@ -7444,7 +7444,7 @@
         <v>767</v>
       </c>
       <c r="E254" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="255">
@@ -7512,7 +7512,7 @@
         <v>747</v>
       </c>
       <c r="E258" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="259">
@@ -7529,7 +7529,7 @@
         <v>746</v>
       </c>
       <c r="E259" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="260">
@@ -7546,7 +7546,7 @@
         <v>771</v>
       </c>
       <c r="E260" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="261">
@@ -7563,7 +7563,7 @@
         <v>772</v>
       </c>
       <c r="E261" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="262">
@@ -7614,7 +7614,7 @@
         <v>775</v>
       </c>
       <c r="E264" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="265">
@@ -7631,7 +7631,7 @@
         <v>776</v>
       </c>
       <c r="E265" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="266">
@@ -7648,7 +7648,7 @@
         <v>777</v>
       </c>
       <c r="E266" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="267">
@@ -7665,7 +7665,7 @@
         <v>778</v>
       </c>
       <c r="E267" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="268">
@@ -7682,7 +7682,7 @@
         <v>779</v>
       </c>
       <c r="E268" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="269">
@@ -7699,7 +7699,7 @@
         <v>780</v>
       </c>
       <c r="E269" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="270">
@@ -7733,7 +7733,7 @@
         <v>780</v>
       </c>
       <c r="E271" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="272">
@@ -7750,7 +7750,7 @@
         <v>782</v>
       </c>
       <c r="E272" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="273">
@@ -7784,7 +7784,7 @@
         <v>784</v>
       </c>
       <c r="E274" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="275">
@@ -7801,7 +7801,7 @@
         <v>785</v>
       </c>
       <c r="E275" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="276">
@@ -7818,7 +7818,7 @@
         <v>786</v>
       </c>
       <c r="E276" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="277">
@@ -7835,7 +7835,7 @@
         <v>787</v>
       </c>
       <c r="E277" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="278">
@@ -7869,7 +7869,7 @@
         <v>789</v>
       </c>
       <c r="E279" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="280">
@@ -7886,7 +7886,7 @@
         <v>790</v>
       </c>
       <c r="E280" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="281">
@@ -7920,7 +7920,7 @@
         <v>792</v>
       </c>
       <c r="E282" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="283">
@@ -7937,7 +7937,7 @@
         <v>793</v>
       </c>
       <c r="E283" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="284">
@@ -8005,7 +8005,7 @@
         <v>797</v>
       </c>
       <c r="E287" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="288">
@@ -8022,7 +8022,7 @@
         <v>798</v>
       </c>
       <c r="E288" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="289">
@@ -8039,7 +8039,7 @@
         <v>799</v>
       </c>
       <c r="E289" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="290">
@@ -8073,7 +8073,7 @@
         <v>801</v>
       </c>
       <c r="E291" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="292">
@@ -8124,7 +8124,7 @@
         <v>804</v>
       </c>
       <c r="E294" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="295">
@@ -8141,7 +8141,7 @@
         <v>805</v>
       </c>
       <c r="E295" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="296">
@@ -8209,7 +8209,7 @@
         <v>809</v>
       </c>
       <c r="E299" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="300">
@@ -8226,7 +8226,7 @@
         <v>810</v>
       </c>
       <c r="E300" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="301">
@@ -8277,7 +8277,7 @@
         <v>813</v>
       </c>
       <c r="E303" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="304">
@@ -8328,7 +8328,7 @@
         <v>816</v>
       </c>
       <c r="E306" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="307">
@@ -8345,7 +8345,7 @@
         <v>817</v>
       </c>
       <c r="E307" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="308">
@@ -8362,7 +8362,7 @@
         <v>818</v>
       </c>
       <c r="E308" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="309">
@@ -8379,7 +8379,7 @@
         <v>819</v>
       </c>
       <c r="E309" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="310">
@@ -8396,7 +8396,7 @@
         <v>820</v>
       </c>
       <c r="E310" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="311">
@@ -8464,7 +8464,7 @@
         <v>824</v>
       </c>
       <c r="E314" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="315">
@@ -8481,7 +8481,7 @@
         <v>825</v>
       </c>
       <c r="E315" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="316">
@@ -8532,7 +8532,7 @@
         <v>828</v>
       </c>
       <c r="E318" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="319">
@@ -8566,7 +8566,7 @@
         <v>830</v>
       </c>
       <c r="E320" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="321">
@@ -8583,7 +8583,7 @@
         <v>831</v>
       </c>
       <c r="E321" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="322">
@@ -8600,7 +8600,7 @@
         <v>832</v>
       </c>
       <c r="E322" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="323">
@@ -8617,7 +8617,7 @@
         <v>833</v>
       </c>
       <c r="E323" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="324">
@@ -8634,7 +8634,7 @@
         <v>834</v>
       </c>
       <c r="E324" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="325">
@@ -8651,7 +8651,7 @@
         <v>835</v>
       </c>
       <c r="E325" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="326">
@@ -8702,7 +8702,7 @@
         <v>838</v>
       </c>
       <c r="E328" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="329">
@@ -8736,7 +8736,7 @@
         <v>840</v>
       </c>
       <c r="E330" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="331">
@@ -8753,7 +8753,7 @@
         <v>841</v>
       </c>
       <c r="E331" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="332">
@@ -8770,7 +8770,7 @@
         <v>842</v>
       </c>
       <c r="E332" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="333">
@@ -8787,7 +8787,7 @@
         <v>843</v>
       </c>
       <c r="E333" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="334">
@@ -8838,7 +8838,7 @@
         <v>846</v>
       </c>
       <c r="E336" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="337">
@@ -8906,7 +8906,7 @@
         <v>850</v>
       </c>
       <c r="E340" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="341">
@@ -8923,7 +8923,7 @@
         <v>851</v>
       </c>
       <c r="E341" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="342">
@@ -8940,7 +8940,7 @@
         <v>852</v>
       </c>
       <c r="E342" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="343">
@@ -8957,7 +8957,7 @@
         <v>853</v>
       </c>
       <c r="E343" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="344">
@@ -8974,7 +8974,7 @@
         <v>854</v>
       </c>
       <c r="E344" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="345">
@@ -8991,7 +8991,7 @@
         <v>855</v>
       </c>
       <c r="E345" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="346">
@@ -9008,7 +9008,7 @@
         <v>856</v>
       </c>
       <c r="E346" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="347">
@@ -9025,7 +9025,7 @@
         <v>857</v>
       </c>
       <c r="E347" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="348">
@@ -9042,7 +9042,7 @@
         <v>858</v>
       </c>
       <c r="E348" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="349">
@@ -9059,7 +9059,7 @@
         <v>859</v>
       </c>
       <c r="E349" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="350">
@@ -9093,7 +9093,7 @@
         <v>861</v>
       </c>
       <c r="E351" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="352">
@@ -9110,7 +9110,7 @@
         <v>862</v>
       </c>
       <c r="E352" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="353">
@@ -9127,7 +9127,7 @@
         <v>863</v>
       </c>
       <c r="E353" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="354">
@@ -9144,7 +9144,7 @@
         <v>864</v>
       </c>
       <c r="E354" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="355">
@@ -9161,7 +9161,7 @@
         <v>865</v>
       </c>
       <c r="E355" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="356">
@@ -9178,7 +9178,7 @@
         <v>866</v>
       </c>
       <c r="E356" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="357">
@@ -9195,7 +9195,7 @@
         <v>867</v>
       </c>
       <c r="E357" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="358">
@@ -9212,7 +9212,7 @@
         <v>868</v>
       </c>
       <c r="E358" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="359">
@@ -9229,7 +9229,7 @@
         <v>869</v>
       </c>
       <c r="E359" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="360">
@@ -9246,7 +9246,7 @@
         <v>870</v>
       </c>
       <c r="E360" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="361">
@@ -9263,7 +9263,7 @@
         <v>871</v>
       </c>
       <c r="E361" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="362">
@@ -9280,7 +9280,7 @@
         <v>872</v>
       </c>
       <c r="E362" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="363">
@@ -9297,7 +9297,7 @@
         <v>873</v>
       </c>
       <c r="E363" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="364">
@@ -9314,7 +9314,7 @@
         <v>874</v>
       </c>
       <c r="E364" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="365">
@@ -9331,7 +9331,7 @@
         <v>875</v>
       </c>
       <c r="E365" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="366">
@@ -9348,7 +9348,7 @@
         <v>876</v>
       </c>
       <c r="E366" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="367">
@@ -9399,7 +9399,7 @@
         <v>879</v>
       </c>
       <c r="E369" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="370">
@@ -9433,7 +9433,7 @@
         <v>881</v>
       </c>
       <c r="E371" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="372">
@@ -9450,7 +9450,7 @@
         <v>882</v>
       </c>
       <c r="E372" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="373">
@@ -9467,7 +9467,7 @@
         <v>883</v>
       </c>
       <c r="E373" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="374">
@@ -9484,7 +9484,7 @@
         <v>884</v>
       </c>
       <c r="E374" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="375">
@@ -9501,7 +9501,7 @@
         <v>885</v>
       </c>
       <c r="E375" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="376">
@@ -9518,7 +9518,7 @@
         <v>886</v>
       </c>
       <c r="E376" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="377">
@@ -9535,7 +9535,7 @@
         <v>887</v>
       </c>
       <c r="E377" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="378">
@@ -9552,7 +9552,7 @@
         <v>888</v>
       </c>
       <c r="E378" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="379">
@@ -9603,7 +9603,7 @@
         <v>891</v>
       </c>
       <c r="E381" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="382">
@@ -9620,7 +9620,7 @@
         <v>892</v>
       </c>
       <c r="E382" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="383">
@@ -9637,7 +9637,7 @@
         <v>893</v>
       </c>
       <c r="E383" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="384">
@@ -9705,7 +9705,7 @@
         <v>897</v>
       </c>
       <c r="E387" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="388">
@@ -9722,7 +9722,7 @@
         <v>898</v>
       </c>
       <c r="E388" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="389">
@@ -9756,7 +9756,7 @@
         <v>900</v>
       </c>
       <c r="E390" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="391">
@@ -9773,7 +9773,7 @@
         <v>901</v>
       </c>
       <c r="E391" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="392">
@@ -9790,7 +9790,7 @@
         <v>902</v>
       </c>
       <c r="E392" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="393">
@@ -9807,7 +9807,7 @@
         <v>903</v>
       </c>
       <c r="E393" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="394">
@@ -9824,7 +9824,7 @@
         <v>904</v>
       </c>
       <c r="E394" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="395">
@@ -9841,7 +9841,7 @@
         <v>905</v>
       </c>
       <c r="E395" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="396">
@@ -9858,7 +9858,7 @@
         <v>906</v>
       </c>
       <c r="E396" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="397">
@@ -9892,7 +9892,7 @@
         <v>908</v>
       </c>
       <c r="E398" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="399">
@@ -9909,7 +9909,7 @@
         <v>909</v>
       </c>
       <c r="E399" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="400">
@@ -9926,7 +9926,7 @@
         <v>910</v>
       </c>
       <c r="E400" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="401">
@@ -9943,7 +9943,7 @@
         <v>911</v>
       </c>
       <c r="E401" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="402">
@@ -9977,7 +9977,7 @@
         <v>913</v>
       </c>
       <c r="E403" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="404">
@@ -9994,7 +9994,7 @@
         <v>914</v>
       </c>
       <c r="E404" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="405">
@@ -10011,7 +10011,7 @@
         <v>915</v>
       </c>
       <c r="E405" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="406">
@@ -10079,7 +10079,7 @@
         <v>919</v>
       </c>
       <c r="E409" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="410">
@@ -10113,7 +10113,7 @@
         <v>921</v>
       </c>
       <c r="E411" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="412">
@@ -10181,7 +10181,7 @@
         <v>925</v>
       </c>
       <c r="E415" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="416">
@@ -10198,7 +10198,7 @@
         <v>926</v>
       </c>
       <c r="E416" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="417">
@@ -10283,7 +10283,7 @@
         <v>931</v>
       </c>
       <c r="E421" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="422">
@@ -10300,7 +10300,7 @@
         <v>932</v>
       </c>
       <c r="E422" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="423">
@@ -10317,7 +10317,7 @@
         <v>933</v>
       </c>
       <c r="E423" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="424">
@@ -10419,7 +10419,7 @@
         <v>939</v>
       </c>
       <c r="E429" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="430">
@@ -10436,7 +10436,7 @@
         <v>940</v>
       </c>
       <c r="E430" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="431">
@@ -10470,7 +10470,7 @@
         <v>942</v>
       </c>
       <c r="E432" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="433">
@@ -10487,7 +10487,7 @@
         <v>943</v>
       </c>
       <c r="E433" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="434">
@@ -10504,7 +10504,7 @@
         <v>944</v>
       </c>
       <c r="E434" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="435">
@@ -10521,7 +10521,7 @@
         <v>945</v>
       </c>
       <c r="E435" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="436">
@@ -10538,7 +10538,7 @@
         <v>946</v>
       </c>
       <c r="E436" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="437">
@@ -10572,7 +10572,7 @@
         <v>948</v>
       </c>
       <c r="E438" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="439">
@@ -10589,7 +10589,7 @@
         <v>949</v>
       </c>
       <c r="E439" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="440">
@@ -10606,7 +10606,7 @@
         <v>950</v>
       </c>
       <c r="E440" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="441">
@@ -10623,7 +10623,7 @@
         <v>951</v>
       </c>
       <c r="E441" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="442">
@@ -10640,7 +10640,7 @@
         <v>952</v>
       </c>
       <c r="E442" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="443">
@@ -10674,7 +10674,7 @@
         <v>954</v>
       </c>
       <c r="E444" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="445">
@@ -10691,7 +10691,7 @@
         <v>955</v>
       </c>
       <c r="E445" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="446">
@@ -10708,7 +10708,7 @@
         <v>956</v>
       </c>
       <c r="E446" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="447">
@@ -10725,7 +10725,7 @@
         <v>957</v>
       </c>
       <c r="E447" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="448">
@@ -10742,7 +10742,7 @@
         <v>958</v>
       </c>
       <c r="E448" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="449">
@@ -10759,7 +10759,7 @@
         <v>959</v>
       </c>
       <c r="E449" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="450">
@@ -10776,7 +10776,7 @@
         <v>960</v>
       </c>
       <c r="E450" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="451">
@@ -10793,7 +10793,7 @@
         <v>961</v>
       </c>
       <c r="E451" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="452">
@@ -10810,7 +10810,7 @@
         <v>962</v>
       </c>
       <c r="E452" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="453">
@@ -10827,7 +10827,7 @@
         <v>963</v>
       </c>
       <c r="E453" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="454">
@@ -10844,7 +10844,7 @@
         <v>964</v>
       </c>
       <c r="E454" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="455">
@@ -10861,7 +10861,7 @@
         <v>965</v>
       </c>
       <c r="E455" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="456">
@@ -10878,7 +10878,7 @@
         <v>966</v>
       </c>
       <c r="E456" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="457">
@@ -10895,7 +10895,7 @@
         <v>967</v>
       </c>
       <c r="E457" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="458">
@@ -10912,7 +10912,7 @@
         <v>968</v>
       </c>
       <c r="E458" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="459">
@@ -10929,7 +10929,7 @@
         <v>969</v>
       </c>
       <c r="E459" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="460">
@@ -10963,7 +10963,7 @@
         <v>971</v>
       </c>
       <c r="E461" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="462">
@@ -10980,7 +10980,7 @@
         <v>972</v>
       </c>
       <c r="E462" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="463">
@@ -10997,7 +10997,7 @@
         <v>973</v>
       </c>
       <c r="E463" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="464">
@@ -11014,7 +11014,7 @@
         <v>974</v>
       </c>
       <c r="E464" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="465">
@@ -11031,7 +11031,7 @@
         <v>975</v>
       </c>
       <c r="E465" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="466">
@@ -11048,7 +11048,7 @@
         <v>976</v>
       </c>
       <c r="E466" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="467">
@@ -11065,7 +11065,7 @@
         <v>977</v>
       </c>
       <c r="E467" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="468">
@@ -11082,7 +11082,7 @@
         <v>978</v>
       </c>
       <c r="E468" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="469">
@@ -11099,7 +11099,7 @@
         <v>979</v>
       </c>
       <c r="E469" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="470">
@@ -11116,7 +11116,7 @@
         <v>980</v>
       </c>
       <c r="E470" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="471">
@@ -11150,7 +11150,7 @@
         <v>982</v>
       </c>
       <c r="E472" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="473">
@@ -11167,7 +11167,7 @@
         <v>983</v>
       </c>
       <c r="E473" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="474">
@@ -11184,7 +11184,7 @@
         <v>984</v>
       </c>
       <c r="E474" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="475">
@@ -11201,7 +11201,7 @@
         <v>985</v>
       </c>
       <c r="E475" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="476">
@@ -11218,7 +11218,7 @@
         <v>986</v>
       </c>
       <c r="E476" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="477">
@@ -11252,7 +11252,7 @@
         <v>988</v>
       </c>
       <c r="E478" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="479">
@@ -11269,7 +11269,7 @@
         <v>989</v>
       </c>
       <c r="E479" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="480">
@@ -11286,7 +11286,7 @@
         <v>990</v>
       </c>
       <c r="E480" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="481">
@@ -11303,7 +11303,7 @@
         <v>991</v>
       </c>
       <c r="E481" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="482">
@@ -11320,7 +11320,7 @@
         <v>992</v>
       </c>
       <c r="E482" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="483">
@@ -11337,7 +11337,7 @@
         <v>993</v>
       </c>
       <c r="E483" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="484">
@@ -11371,7 +11371,7 @@
         <v>995</v>
       </c>
       <c r="E485" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="486">
@@ -11388,7 +11388,7 @@
         <v>996</v>
       </c>
       <c r="E486" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="487">
@@ -11405,7 +11405,7 @@
         <v>997</v>
       </c>
       <c r="E487" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="488">
@@ -11422,7 +11422,7 @@
         <v>998</v>
       </c>
       <c r="E488" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="489">
@@ -11456,7 +11456,7 @@
         <v>1000</v>
       </c>
       <c r="E490" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="491">
@@ -11473,7 +11473,7 @@
         <v>1001</v>
       </c>
       <c r="E491" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="492">
@@ -11490,7 +11490,7 @@
         <v>1002</v>
       </c>
       <c r="E492" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="493">
@@ -11507,7 +11507,7 @@
         <v>1003</v>
       </c>
       <c r="E493" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="494">
@@ -11524,7 +11524,7 @@
         <v>1004</v>
       </c>
       <c r="E494" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="495">
@@ -11541,7 +11541,7 @@
         <v>1005</v>
       </c>
       <c r="E495" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="496">
@@ -11558,7 +11558,7 @@
         <v>1006</v>
       </c>
       <c r="E496" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="497">
@@ -11592,7 +11592,7 @@
         <v>1008</v>
       </c>
       <c r="E498" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="499">
@@ -11609,7 +11609,7 @@
         <v>1009</v>
       </c>
       <c r="E499" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="500">
@@ -11660,7 +11660,7 @@
         <v>1012</v>
       </c>
       <c r="E502" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="503">
@@ -11677,7 +11677,7 @@
         <v>1013</v>
       </c>
       <c r="E503" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="504">
@@ -11711,7 +11711,7 @@
         <v>1015</v>
       </c>
       <c r="E505" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="506">
@@ -11728,7 +11728,7 @@
         <v>1016</v>
       </c>
       <c r="E506" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="507">
@@ -11745,7 +11745,7 @@
         <v>1017</v>
       </c>
       <c r="E507" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="508">
@@ -11762,7 +11762,7 @@
         <v>1018</v>
       </c>
       <c r="E508" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="509">
@@ -11779,7 +11779,7 @@
         <v>1019</v>
       </c>
       <c r="E509" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="510">
@@ -11796,7 +11796,7 @@
         <v>1020</v>
       </c>
       <c r="E510" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="511">
@@ -11813,7 +11813,7 @@
         <v>1021</v>
       </c>
       <c r="E511" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="512">
@@ -11830,7 +11830,7 @@
         <v>1022</v>
       </c>
       <c r="E512" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
   </sheetData>
